--- a/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_极光组.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_极光组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -298,6 +298,16 @@
   <si>
     <t>极光组</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -940,6 +950,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1412,7 +1422,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1542,11 +1552,17 @@
       <c r="N2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="62"/>
+      <c r="O2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="Q2" s="54"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="86" t="s">
+      <c r="R2" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="77" t="s">
         <v>78</v>
       </c>
       <c r="T2" s="67"/>
@@ -1586,11 +1602,17 @@
       <c r="N3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="62"/>
+      <c r="O3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="Q3" s="54"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="86" t="s">
+      <c r="R3" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="77" t="s">
         <v>79</v>
       </c>
       <c r="T3" s="59"/>
@@ -1630,11 +1652,17 @@
       <c r="N4" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="62"/>
+      <c r="O4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="Q4" s="54"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="86" t="s">
+      <c r="R4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="77" t="s">
         <v>80</v>
       </c>
       <c r="T4" s="59"/>
@@ -1674,11 +1702,17 @@
       <c r="N5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="62"/>
+      <c r="O5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="Q5" s="54"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="86" t="s">
+      <c r="R5" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="77" t="s">
         <v>81</v>
       </c>
       <c r="T5" s="71"/>
@@ -1718,11 +1752,17 @@
       <c r="N6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="62"/>
+      <c r="O6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="Q6" s="54"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="86" t="s">
+      <c r="R6" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="77" t="s">
         <v>82</v>
       </c>
       <c r="T6" s="59"/>
@@ -1762,11 +1802,17 @@
       <c r="N7" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="62"/>
+      <c r="O7" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="Q7" s="54"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="86" t="s">
+      <c r="R7" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="77" t="s">
         <v>83</v>
       </c>
       <c r="T7" s="59"/>
@@ -5829,19 +5875,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5879,8 +5925,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5892,8 +5938,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5905,8 +5951,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5918,8 +5964,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5931,8 +5977,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5944,8 +5990,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5957,8 +6003,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5970,8 +6016,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6032,36 +6078,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6346,36 +6392,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6660,36 +6706,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6976,36 +7022,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_极光组.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_极光组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -308,6 +308,21 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>renterembed、renterembed-fe</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterembed-fe、tasktracker</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1422,7 +1437,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1431,12 +1446,12 @@
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
     <col min="4" max="4" width="45.125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="47" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="47" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="48" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="48" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="48" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="13" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="10" style="48" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="48" customWidth="1"/>
     <col min="12" max="14" width="11.875" style="47" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="47" customWidth="1"/>
     <col min="16" max="16" width="9.625" style="48" customWidth="1"/>
@@ -1537,11 +1552,21 @@
       <c r="E2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="F2" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="54">
+        <v>42772</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="54">
+        <v>42772</v>
+      </c>
       <c r="K2" s="53"/>
       <c r="L2" s="62" t="s">
         <v>84</v>
@@ -1558,7 +1583,9 @@
       <c r="P2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="54"/>
+      <c r="Q2" s="54">
+        <v>42786</v>
+      </c>
       <c r="R2" s="62" t="s">
         <v>88</v>
       </c>
@@ -1587,11 +1614,21 @@
       <c r="E3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="F3" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="54">
+        <v>42772</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="54">
+        <v>42772</v>
+      </c>
       <c r="K3" s="53"/>
       <c r="L3" s="62" t="s">
         <v>84</v>
@@ -1608,7 +1645,9 @@
       <c r="P3" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="54"/>
+      <c r="Q3" s="54">
+        <v>42786</v>
+      </c>
       <c r="R3" s="62" t="s">
         <v>88</v>
       </c>
@@ -1637,11 +1676,21 @@
       <c r="E4" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="F4" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="54">
+        <v>42772</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="54">
+        <v>42772</v>
+      </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
         <v>84</v>
@@ -1658,7 +1707,9 @@
       <c r="P4" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="54"/>
+      <c r="Q4" s="54">
+        <v>42786</v>
+      </c>
       <c r="R4" s="62" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +1722,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A5" s="51">
         <v>4</v>
       </c>
@@ -1687,11 +1738,21 @@
       <c r="E5" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="F5" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="54">
+        <v>42772</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="54">
+        <v>42772</v>
+      </c>
       <c r="K5" s="53"/>
       <c r="L5" s="62" t="s">
         <v>84</v>
@@ -1708,7 +1769,9 @@
       <c r="P5" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="54"/>
+      <c r="Q5" s="54">
+        <v>42786</v>
+      </c>
       <c r="R5" s="62" t="s">
         <v>88</v>
       </c>
@@ -1737,11 +1800,21 @@
       <c r="E6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="F6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="54">
+        <v>42772</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="54">
+        <v>42772</v>
+      </c>
       <c r="K6" s="53"/>
       <c r="L6" s="62" t="s">
         <v>84</v>
@@ -1758,7 +1831,9 @@
       <c r="P6" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="54"/>
+      <c r="Q6" s="54">
+        <v>42786</v>
+      </c>
       <c r="R6" s="62" t="s">
         <v>88</v>
       </c>
@@ -1787,11 +1862,21 @@
       <c r="E7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="F7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="54">
+        <v>42772</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="54">
+        <v>42772</v>
+      </c>
       <c r="K7" s="53"/>
       <c r="L7" s="62" t="s">
         <v>84</v>
@@ -1808,7 +1893,9 @@
       <c r="P7" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="54"/>
+      <c r="Q7" s="54">
+        <v>42786</v>
+      </c>
       <c r="R7" s="62" t="s">
         <v>88</v>
       </c>
